--- a/MS Projects/Palmer amaranth Resistance/Data Analysis - POST/RAW SURV_POPxHERBxDOSE.xlsx
+++ b/MS Projects/Palmer amaranth Resistance/Data Analysis - POST/RAW SURV_POPxHERBxDOSE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/MS Projects/Palmer amaranth Resistance/Data Analysis - POST/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_9EEE8FF086E1BB4B57638419EEF7B3545B9DF5FA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C195034-6267-49DB-A0B6-24D6865C6C86}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="11_9EEE8FF086E1BB4B57638419EEF7B3545B9DF5FA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A867A7CE-AAB9-4D78-A9D1-1AEFD1E148F0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,25 @@
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$H$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$J$49</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="23">
   <si>
     <t>pop</t>
   </si>
@@ -86,6 +97,12 @@
   </si>
   <si>
     <t>Dose</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
+    <t>LS</t>
   </si>
 </sst>
 </file>
@@ -419,15 +436,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,10 +467,16 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -476,10 +499,18 @@
         <v>0.119678388469542</v>
       </c>
       <c r="H2">
+        <f>E2-G2</f>
+        <v>0.19282161153045801</v>
+      </c>
+      <c r="I2">
+        <f>E2+G2</f>
+        <v>0.43217838846954199</v>
+      </c>
+      <c r="J2">
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -502,10 +533,18 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H3:H49" si="0">E3-G3</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I49" si="1">E3+G3</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -528,10 +567,18 @@
         <v>0.125</v>
       </c>
       <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="J4">
         <v>0.24499549806750701</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -554,15 +601,23 @@
         <v>0.12808688457449499</v>
       </c>
       <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0.30941311542550498</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>0.56558688457449502</v>
+      </c>
+      <c r="J5">
         <v>0.25104568065794902</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -571,76 +626,100 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.478713553878169</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.119678388469542</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <f>E6-G6</f>
+        <v>0.19282161153045801</v>
+      </c>
+      <c r="I6">
+        <f>E6+G6</f>
+        <v>0.43217838846954199</v>
+      </c>
+      <c r="J6">
+        <v>0.23456533112809599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7">
         <v>16</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.478713553878169</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.119678388469542</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <f>E7-G7</f>
+        <v>0.19282161153045801</v>
+      </c>
+      <c r="I7">
+        <f>E7+G7</f>
+        <v>0.43217838846954199</v>
+      </c>
+      <c r="J7">
+        <v>0.23456533112809599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>16</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.40311288741492801</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.100778221853732</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <f>E8-G8</f>
+        <v>8.6721778146267997E-2</v>
+      </c>
+      <c r="I8">
+        <f>E8+G8</f>
+        <v>0.28827822185373198</v>
+      </c>
+      <c r="J8">
+        <v>0.197521685259302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -649,19 +728,27 @@
         <v>16</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.40311288741492801</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.100778221853732</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <f>E9-G9</f>
+        <v>8.6721778146267997E-2</v>
+      </c>
+      <c r="I9">
+        <f>E9+G9</f>
+        <v>0.28827822185373198</v>
+      </c>
+      <c r="J9">
+        <v>0.197521685259302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -684,10 +771,18 @@
         <v>0.119678388469542</v>
       </c>
       <c r="H10">
+        <f>E10-G10</f>
+        <v>0.56782161153045796</v>
+      </c>
+      <c r="I10">
+        <f>E10+G10</f>
+        <v>0.80717838846954204</v>
+      </c>
+      <c r="J10">
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -710,10 +805,18 @@
         <v>0.119678388469542</v>
       </c>
       <c r="H11">
+        <f>E11-G11</f>
+        <v>0.19282161153045801</v>
+      </c>
+      <c r="I11">
+        <f>E11+G11</f>
+        <v>0.43217838846954199</v>
+      </c>
+      <c r="J11">
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -736,10 +839,18 @@
         <v>0.125</v>
       </c>
       <c r="H12">
+        <f>E12-G12</f>
+        <v>0.5</v>
+      </c>
+      <c r="I12">
+        <f>E12+G12</f>
+        <v>0.75</v>
+      </c>
+      <c r="J12">
         <v>0.24499549806750701</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -762,15 +873,23 @@
         <v>0.111803398874989</v>
       </c>
       <c r="H13">
+        <f>E13-G13</f>
+        <v>0.63819660112501098</v>
+      </c>
+      <c r="I13">
+        <f>E13+G13</f>
+        <v>0.86180339887498902</v>
+      </c>
+      <c r="J13">
         <v>0.21913063514414499</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -779,27 +898,35 @@
         <v>16</v>
       </c>
       <c r="E14">
-        <v>0.3125</v>
+        <v>0.1875</v>
       </c>
       <c r="F14">
-        <v>0.478713553878169</v>
+        <v>0.40311288741492801</v>
       </c>
       <c r="G14">
-        <v>0.119678388469542</v>
+        <v>0.100778221853732</v>
       </c>
       <c r="H14">
-        <v>0.23456533112809599</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <f>E14-G14</f>
+        <v>8.6721778146267997E-2</v>
+      </c>
+      <c r="I14">
+        <f>E14+G14</f>
+        <v>0.28827822185373198</v>
+      </c>
+      <c r="J14">
+        <v>0.197521685259302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15">
         <v>16</v>
@@ -814,62 +941,86 @@
         <v>0.100778221853732</v>
       </c>
       <c r="H15">
+        <f>E15-G15</f>
+        <v>8.6721778146267997E-2</v>
+      </c>
+      <c r="I15">
+        <f>E15+G15</f>
+        <v>0.28827822185373198</v>
+      </c>
+      <c r="J15">
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16">
         <v>16</v>
       </c>
       <c r="E16">
-        <v>6.25E-2</v>
+        <v>0.125</v>
       </c>
       <c r="F16">
-        <v>0.25</v>
+        <v>0.34156502553198698</v>
       </c>
       <c r="G16">
-        <v>6.25E-2</v>
+        <v>8.5391256382996605E-2</v>
       </c>
       <c r="H16">
-        <v>0.122497749033753</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <f>E16-G16</f>
+        <v>3.9608743617003395E-2</v>
+      </c>
+      <c r="I16">
+        <f>E16+G16</f>
+        <v>0.21039125638299661</v>
+      </c>
+      <c r="J16">
+        <v>0.16736378710529901</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17">
         <v>16</v>
       </c>
       <c r="E17">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="F17">
-        <v>0.40311288741492801</v>
+        <v>0.34156502553198698</v>
       </c>
       <c r="G17">
-        <v>0.100778221853732</v>
+        <v>8.5391256382996605E-2</v>
       </c>
       <c r="H17">
-        <v>0.197521685259302</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <f>E17-G17</f>
+        <v>3.9608743617003395E-2</v>
+      </c>
+      <c r="I17">
+        <f>E17+G17</f>
+        <v>0.21039125638299661</v>
+      </c>
+      <c r="J17">
+        <v>0.16736378710529901</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -892,10 +1043,18 @@
         <v>0.125</v>
       </c>
       <c r="H18">
+        <f>E18-G18</f>
+        <v>0.25</v>
+      </c>
+      <c r="I18">
+        <f>E18+G18</f>
+        <v>0.5</v>
+      </c>
+      <c r="J18">
         <v>0.24499549806750701</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -918,10 +1077,18 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <f>E19-G19</f>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f>E19+G19</f>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -944,10 +1111,18 @@
         <v>0.119678388469542</v>
       </c>
       <c r="H20">
+        <f>E20-G20</f>
+        <v>0.56782161153045796</v>
+      </c>
+      <c r="I20">
+        <f>E20+G20</f>
+        <v>0.80717838846954204</v>
+      </c>
+      <c r="J20">
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -970,15 +1145,23 @@
         <v>0.12909944487358099</v>
       </c>
       <c r="H21">
+        <f>E21-G21</f>
+        <v>0.37090055512641901</v>
+      </c>
+      <c r="I21">
+        <f>E21+G21</f>
+        <v>0.62909944487358094</v>
+      </c>
+      <c r="J21">
         <v>0.25303026237633203</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -987,19 +1170,27 @@
         <v>16</v>
       </c>
       <c r="E22">
-        <v>0.1875</v>
+        <v>6.25E-2</v>
       </c>
       <c r="F22">
-        <v>0.40311288741492801</v>
+        <v>0.25</v>
       </c>
       <c r="G22">
-        <v>0.100778221853732</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H22">
-        <v>0.197521685259302</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <f>E22-G22</f>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f>E22+G22</f>
+        <v>0.125</v>
+      </c>
+      <c r="J22">
+        <v>0.122497749033753</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -1022,41 +1213,57 @@
         <v>6.25E-2</v>
       </c>
       <c r="H23">
+        <f>E23-G23</f>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f>E23+G23</f>
+        <v>0.125</v>
+      </c>
+      <c r="J23">
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24">
         <v>16</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <f>E24-G24</f>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f>E24+G24</f>
+        <v>0.125</v>
+      </c>
+      <c r="J24">
+        <v>0.122497749033753</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
@@ -1065,19 +1272,27 @@
         <v>16</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <f>E25-G25</f>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f>E25+G25</f>
+        <v>0.125</v>
+      </c>
+      <c r="J25">
+        <v>0.122497749033753</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -1100,10 +1315,18 @@
         <v>6.25E-2</v>
       </c>
       <c r="H26">
+        <f>E26-G26</f>
+        <v>0.875</v>
+      </c>
+      <c r="I26">
+        <f>E26+G26</f>
+        <v>1</v>
+      </c>
+      <c r="J26">
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -1126,10 +1349,18 @@
         <v>0.12808688457449499</v>
       </c>
       <c r="H27">
+        <f>E27-G27</f>
+        <v>0.30941311542550498</v>
+      </c>
+      <c r="I27">
+        <f>E27+G27</f>
+        <v>0.56558688457449502</v>
+      </c>
+      <c r="J27">
         <v>0.25104568065794902</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -1152,10 +1383,18 @@
         <v>0.111803398874989</v>
       </c>
       <c r="H28">
+        <f>E28-G28</f>
+        <v>0.63819660112501098</v>
+      </c>
+      <c r="I28">
+        <f>E28+G28</f>
+        <v>0.86180339887498902</v>
+      </c>
+      <c r="J28">
         <v>0.21913063514414499</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1178,12 +1417,20 @@
         <v>0.100778221853732</v>
       </c>
       <c r="H29">
+        <f>E29-G29</f>
+        <v>0.71172177814626802</v>
+      </c>
+      <c r="I29">
+        <f>E29+G29</f>
+        <v>0.91327822185373198</v>
+      </c>
+      <c r="J29">
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
@@ -1195,21 +1442,29 @@
         <v>16</v>
       </c>
       <c r="E30">
-        <v>0.1875</v>
+        <v>6.25E-2</v>
       </c>
       <c r="F30">
-        <v>0.40311288741492801</v>
+        <v>0.25</v>
       </c>
       <c r="G30">
-        <v>0.100778221853732</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H30">
-        <v>0.197521685259302</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <f>E30-G30</f>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f>E30+G30</f>
+        <v>0.125</v>
+      </c>
+      <c r="J30">
+        <v>0.122497749033753</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
@@ -1230,12 +1485,20 @@
         <v>6.25E-2</v>
       </c>
       <c r="H31">
+        <f>E31-G31</f>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f>E31+G31</f>
+        <v>0.125</v>
+      </c>
+      <c r="J31">
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
         <v>17</v>
@@ -1247,45 +1510,61 @@
         <v>16</v>
       </c>
       <c r="E32">
-        <v>0.3125</v>
+        <v>6.25E-2</v>
       </c>
       <c r="F32">
-        <v>0.478713553878169</v>
+        <v>0.25</v>
       </c>
       <c r="G32">
-        <v>0.119678388469542</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H32">
-        <v>0.23456533112809599</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <f>E32-G32</f>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f>E32+G32</f>
+        <v>0.125</v>
+      </c>
+      <c r="J32">
+        <v>0.122497749033753</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D33">
         <v>16</v>
       </c>
       <c r="E33">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0.34156502553198698</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>8.5391256382996605E-2</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>0.16736378710529901</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <f>E33-G33</f>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f>E33+G33</f>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -1308,10 +1587,18 @@
         <v>0.12909944487358099</v>
       </c>
       <c r="H34">
+        <f>E34-G34</f>
+        <v>0.37090055512641901</v>
+      </c>
+      <c r="I34">
+        <f>E34+G34</f>
+        <v>0.62909944487358094</v>
+      </c>
+      <c r="J34">
         <v>0.25303026237633203</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -1334,10 +1621,18 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <f>E35-G35</f>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f>E35+G35</f>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -1360,10 +1655,18 @@
         <v>8.5391256382996605E-2</v>
       </c>
       <c r="H36">
+        <f>E36-G36</f>
+        <v>3.9608743617003395E-2</v>
+      </c>
+      <c r="I36">
+        <f>E36+G36</f>
+        <v>0.21039125638299661</v>
+      </c>
+      <c r="J36">
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -1386,70 +1689,94 @@
         <v>6.25E-2</v>
       </c>
       <c r="H37">
+        <f>E37-G37</f>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f>E37+G37</f>
+        <v>0.125</v>
+      </c>
+      <c r="J37">
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
         <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38">
         <v>16</v>
       </c>
       <c r="E38">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.34156502553198698</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>8.5391256382996605E-2</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>0.16736378710529901</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <f>E38-G38</f>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f>E38+G38</f>
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D39">
         <v>16</v>
       </c>
       <c r="E39">
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>0.122497749033753</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <f>E39-G39</f>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f>E39+G39</f>
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
         <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40">
         <v>16</v>
@@ -1464,18 +1791,26 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <f>E40-G40</f>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f>E40+G40</f>
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D41">
         <v>16</v>
@@ -1490,10 +1825,18 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <f>E41-G41</f>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f>E41+G41</f>
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -1516,10 +1859,18 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <f>E42-G42</f>
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f>E42+G42</f>
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -1542,10 +1893,18 @@
         <v>6.25E-2</v>
       </c>
       <c r="H43">
+        <f>E43-G43</f>
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <f>E43+G43</f>
+        <v>0.125</v>
+      </c>
+      <c r="J43">
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -1568,10 +1927,18 @@
         <v>8.5391256382996605E-2</v>
       </c>
       <c r="H44">
+        <f>E44-G44</f>
+        <v>0.78960874361700339</v>
+      </c>
+      <c r="I44">
+        <f>E44+G44</f>
+        <v>0.96039125638299661</v>
+      </c>
+      <c r="J44">
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -1594,88 +1961,120 @@
         <v>6.25E-2</v>
       </c>
       <c r="H45">
+        <f>E45-G45</f>
+        <v>0.875</v>
+      </c>
+      <c r="I45">
+        <f>E45+G45</f>
+        <v>1</v>
+      </c>
+      <c r="J45">
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46">
         <v>16</v>
       </c>
       <c r="E46">
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>0.122497749033753</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <f>E46-G46</f>
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <f>E46+G46</f>
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D47">
         <v>16</v>
       </c>
       <c r="E47">
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>0.122497749033753</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <f>E47-G47</f>
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <f>E47+G47</f>
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48">
         <v>16</v>
       </c>
       <c r="E48">
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>0.122497749033753</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <f>E48-G48</f>
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <f>E48+G48</f>
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -1698,11 +2097,19 @@
         <v>0</v>
       </c>
       <c r="H49">
+        <f>E49-G49</f>
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <f>E49+G49</f>
+        <v>0</v>
+      </c>
+      <c r="J49">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H49" xr:uid="{7A6D8B62-E236-4E09-91BA-F462C2056633}"/>
+  <autoFilter ref="A1:J49" xr:uid="{7A6D8B62-E236-4E09-91BA-F462C2056633}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
